--- a/Характеристики.xlsx
+++ b/Характеристики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>модели --&gt;</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>executive_class</t>
+  </si>
+  <si>
+    <t>family_car</t>
+  </si>
+  <si>
+    <t>five_seats</t>
+  </si>
+  <si>
+    <t>two_seats</t>
+  </si>
+  <si>
+    <t>four_seats</t>
   </si>
 </sst>
 </file>
@@ -525,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
@@ -601,6 +616,52 @@
         <v>53</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -608,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +821,85 @@
         <v>54</v>
       </c>
     </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Характеристики.xlsx
+++ b/Характеристики.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="2" r:id="rId1"/>
     <sheet name="Модели" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>модели --&gt;</t>
   </si>
@@ -195,6 +196,12 @@
   </si>
   <si>
     <t>four_seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>body_type</t>
   </si>
 </sst>
 </file>
@@ -542,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,17 +655,44 @@
       <c r="D5" t="s">
         <v>53</v>
       </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -669,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +902,9 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
+      <c r="AH5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -898,6 +935,14 @@
       </c>
       <c r="J7" t="s">
         <v>53</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Характеристики.xlsx
+++ b/Характеристики.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Модели" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>модели --&gt;</t>
   </si>
@@ -202,6 +201,36 @@
   </si>
   <si>
     <t>body_type</t>
+  </si>
+  <si>
+    <t>number_of_doors</t>
+  </si>
+  <si>
+    <t>coupe</t>
+  </si>
+  <si>
+    <t>sedan</t>
+  </si>
+  <si>
+    <t>crossover</t>
+  </si>
+  <si>
+    <t>hatchback</t>
+  </si>
+  <si>
+    <t>station_wagon</t>
+  </si>
+  <si>
+    <t>suv</t>
+  </si>
+  <si>
+    <t>limousine</t>
+  </si>
+  <si>
+    <t>roadster</t>
+  </si>
+  <si>
+    <t>engine_power</t>
   </si>
 </sst>
 </file>
@@ -547,15 +576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
@@ -696,6 +725,42 @@
         <v>53</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -703,25 +768,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" customWidth="1"/>
     <col min="27" max="27" width="11.140625" customWidth="1"/>
     <col min="28" max="28" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" customWidth="1"/>
     <col min="32" max="32" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -944,6 +1012,232 @@
       <c r="A8" t="s">
         <v>61</v>
       </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>540</v>
+      </c>
+      <c r="C10">
+        <v>340</v>
+      </c>
+      <c r="D10">
+        <v>249</v>
+      </c>
+      <c r="E10">
+        <v>507</v>
+      </c>
+      <c r="F10">
+        <v>550</v>
+      </c>
+      <c r="G10">
+        <v>610</v>
+      </c>
+      <c r="H10">
+        <v>700</v>
+      </c>
+      <c r="I10">
+        <v>540</v>
+      </c>
+      <c r="J10">
+        <v>340</v>
+      </c>
+      <c r="K10">
+        <v>330</v>
+      </c>
+      <c r="L10">
+        <v>105</v>
+      </c>
+      <c r="M10">
+        <v>110</v>
+      </c>
+      <c r="N10">
+        <v>550</v>
+      </c>
+      <c r="O10">
+        <v>550</v>
+      </c>
+      <c r="P10">
+        <v>422</v>
+      </c>
+      <c r="Q10">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Характеристики.xlsx
+++ b/Характеристики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>модели --&gt;</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>engine_power</t>
+  </si>
+  <si>
+    <t>country_of_origin</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>great_britain</t>
+  </si>
+  <si>
+    <t>italia</t>
+  </si>
+  <si>
+    <t>czech_republic</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>russian</t>
+  </si>
+  <si>
+    <t>japan</t>
   </si>
 </sst>
 </file>
@@ -576,19 +600,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -759,6 +789,56 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -768,10 +848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,9 +1140,6 @@
       <c r="S8" t="s">
         <v>70</v>
       </c>
-      <c r="T8" t="s">
-        <v>65</v>
-      </c>
       <c r="W8" t="s">
         <v>65</v>
       </c>
@@ -1237,6 +1314,71 @@
       </c>
       <c r="Q10">
         <v>150</v>
+      </c>
+      <c r="R10">
+        <v>71</v>
+      </c>
+      <c r="S10">
+        <v>82</v>
+      </c>
+      <c r="T10">
+        <v>113</v>
+      </c>
+      <c r="U10">
+        <v>114</v>
+      </c>
+      <c r="V10">
+        <v>139</v>
+      </c>
+      <c r="W10">
+        <v>106</v>
+      </c>
+      <c r="X10">
+        <v>106</v>
+      </c>
+      <c r="Y10">
+        <v>144</v>
+      </c>
+      <c r="Z10">
+        <v>114</v>
+      </c>
+      <c r="AA10">
+        <v>230</v>
+      </c>
+      <c r="AB10">
+        <v>146</v>
+      </c>
+      <c r="AC10">
+        <v>150</v>
+      </c>
+      <c r="AD10">
+        <v>178</v>
+      </c>
+      <c r="AE10">
+        <v>122</v>
+      </c>
+      <c r="AF10">
+        <v>122</v>
+      </c>
+      <c r="AG10">
+        <v>122</v>
+      </c>
+      <c r="AH10">
+        <v>231</v>
+      </c>
+      <c r="AI10">
+        <v>381</v>
+      </c>
+      <c r="AJ10">
+        <v>563</v>
+      </c>
+      <c r="AK10">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Характеристики.xlsx
+++ b/Характеристики.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>модели --&gt;</t>
   </si>
@@ -32,9 +32,6 @@
     <t>continental</t>
   </si>
   <si>
-    <t>bentayga</t>
-  </si>
-  <si>
     <t>huracan</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>lamborghini</t>
   </si>
   <si>
-    <t>porshe</t>
-  </si>
-  <si>
     <t>skoda</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>japan</t>
+  </si>
+  <si>
+    <t>year_of_beginning</t>
+  </si>
+  <si>
+    <t>porsche</t>
   </si>
 </sst>
 </file>
@@ -600,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
@@ -623,152 +623,152 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -788,57 +788,107 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="K11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" t="s">
-        <v>74</v>
+      <c r="B12">
+        <v>1909</v>
+      </c>
+      <c r="C12">
+        <v>1919</v>
+      </c>
+      <c r="D12">
+        <v>1963</v>
+      </c>
+      <c r="E12">
+        <v>1931</v>
+      </c>
+      <c r="F12">
+        <v>1895</v>
+      </c>
+      <c r="G12">
+        <v>1909</v>
+      </c>
+      <c r="H12">
+        <v>1926</v>
+      </c>
+      <c r="I12">
+        <v>1994</v>
+      </c>
+      <c r="J12">
+        <v>1898</v>
+      </c>
+      <c r="K12">
+        <v>1966</v>
+      </c>
+      <c r="L12">
+        <v>1933</v>
+      </c>
+      <c r="M12">
+        <v>1870</v>
+      </c>
+      <c r="N12">
+        <v>1958</v>
+      </c>
+      <c r="O12">
+        <v>1916</v>
+      </c>
+      <c r="P12">
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -848,15 +898,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
@@ -890,305 +940,305 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1">
         <v>911</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="AF8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" t="s">
         <v>66</v>
       </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>68</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1265,7 +1315,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>540</v>
@@ -1378,7 +1428,120 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>2006</v>
+      </c>
+      <c r="C12">
+        <v>1994</v>
+      </c>
+      <c r="D12">
+        <v>2008</v>
+      </c>
+      <c r="E12">
+        <v>2002</v>
+      </c>
+      <c r="F12">
+        <v>2015</v>
+      </c>
+      <c r="G12">
+        <v>2014</v>
+      </c>
+      <c r="H12">
+        <v>2011</v>
+      </c>
+      <c r="I12">
+        <v>1963</v>
+      </c>
+      <c r="J12">
+        <v>2002</v>
+      </c>
+      <c r="K12">
+        <v>2009</v>
+      </c>
+      <c r="L12">
+        <v>1999</v>
+      </c>
+      <c r="M12">
+        <v>2009</v>
+      </c>
+      <c r="N12">
+        <v>2002</v>
+      </c>
+      <c r="O12">
+        <v>2002</v>
+      </c>
+      <c r="P12">
+        <v>1979</v>
+      </c>
+      <c r="Q12">
+        <v>2013</v>
+      </c>
+      <c r="R12">
+        <v>1998</v>
+      </c>
+      <c r="S12">
+        <v>2002</v>
+      </c>
+      <c r="T12">
+        <v>2004</v>
+      </c>
+      <c r="U12">
+        <v>2009</v>
+      </c>
+      <c r="V12">
+        <v>2010</v>
+      </c>
+      <c r="W12">
+        <v>2015</v>
+      </c>
+      <c r="X12">
+        <v>2015</v>
+      </c>
+      <c r="Y12">
+        <v>2001</v>
+      </c>
+      <c r="Z12">
+        <v>2016</v>
+      </c>
+      <c r="AA12">
+        <v>1985</v>
+      </c>
+      <c r="AB12">
+        <v>2001</v>
+      </c>
+      <c r="AC12">
+        <v>1973</v>
+      </c>
+      <c r="AD12">
+        <v>1981</v>
+      </c>
+      <c r="AE12">
+        <v>2007</v>
+      </c>
+      <c r="AF12">
+        <v>2011</v>
+      </c>
+      <c r="AG12">
+        <v>2012</v>
+      </c>
+      <c r="AH12">
+        <v>2013</v>
+      </c>
+      <c r="AI12">
+        <v>1999</v>
+      </c>
+      <c r="AJ12">
+        <v>2009</v>
+      </c>
+      <c r="AK12">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>

--- a/Характеристики.xlsx
+++ b/Характеристики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="2" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>france</t>
   </si>
   <si>
-    <t>russian</t>
-  </si>
-  <si>
     <t>japan</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>porsche</t>
+  </si>
+  <si>
+    <t>russia</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>39</v>
@@ -823,13 +823,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
         <v>76</v>
       </c>
-      <c r="L11" t="s">
-        <v>77</v>
-      </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
         <v>72</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>1909</v>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>2006</v>
